--- a/Running projects/BAF Head Office/001 Invoice for VFD.xlsx
+++ b/Running projects/BAF Head Office/001 Invoice for VFD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB5891B-899C-4920-911E-DF078487B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E5593-BCFB-42C4-B4BE-E8258708BE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$26:$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Note: Bill will be charged on actual measurment.</t>
-  </si>
-  <si>
-    <t>Attn: Mr. Shujaat Ali</t>
   </si>
   <si>
     <t>Supply and installation of VFD For Bank Al-Falah Head Office Karachi.</t>
@@ -114,9 +111,6 @@
     <t>Warranty 01 Year.</t>
   </si>
   <si>
-    <t>29 July 2024</t>
-  </si>
-  <si>
     <t>Invoice  #</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>SRB 15% on Labour</t>
+  </si>
+  <si>
+    <t>23 Jan 2025</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Amjad</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -459,12 +459,90 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,107 +561,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1146,17 +1128,17 @@
         <v>10</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="27"/>
       <c r="D12" s="24"/>
       <c r="F12" s="32"/>
       <c r="G12" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="30">
         <v>6</v>
@@ -1181,29 +1163,29 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="A15" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
@@ -1226,16 +1208,16 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="A20" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1248,26 +1230,26 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="A22" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -1290,29 +1272,29 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>17</v>
+      <c r="G26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>9</v>
@@ -1338,68 +1320,68 @@
         <f>E27*D27</f>
         <v>350000</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="54">
         <f>F27*D27</f>
         <v>8000</v>
       </c>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="57">
         <v>2</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="74" t="s">
+      <c r="B28" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="57">
         <v>1</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="59">
         <v>450000</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="59">
         <v>10000</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="59">
         <f>E28*D28</f>
         <v>450000</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="60">
         <f>F28*D28</f>
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="73">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="56">
         <f>SUM(G27:G28)</f>
         <v>800000</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="56">
         <f>SUM(H27:H28)</f>
         <v>18000</v>
       </c>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
+      <c r="A30" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="21">
         <v>0</v>
       </c>
@@ -1410,14 +1392,14 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="21">
         <f>G30+G29</f>
         <v>800000</v>
@@ -1429,251 +1411,251 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55">
         <f>H31+G31</f>
         <v>820700</v>
       </c>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:18" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:18" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+    </row>
+    <row r="36" spans="1:18" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-    </row>
-    <row r="36" spans="1:18" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-    </row>
-    <row r="37" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="54" t="s">
+      <c r="H37" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="41">
         <v>1</v>
       </c>
-      <c r="C37" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="55" t="s">
+      <c r="B38" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="57">
+      <c r="C38" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="41">
         <v>1</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="57">
-        <v>1</v>
-      </c>
-      <c r="E38" s="59">
+      <c r="E38" s="43">
         <v>350000</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="43">
         <v>8000</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="43">
         <f>E38*D38</f>
         <v>350000</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="44">
         <f>F38*D38</f>
         <v>8000</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61">
+      <c r="A39" s="45">
         <v>2</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="61" t="s">
+      <c r="B39" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="45">
         <v>1</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="47">
         <v>980000</v>
       </c>
-      <c r="F39" s="63">
+      <c r="F39" s="47">
         <v>15000</v>
       </c>
-      <c r="G39" s="63">
+      <c r="G39" s="47">
         <f>E39*D39</f>
         <v>980000</v>
       </c>
-      <c r="H39" s="64">
+      <c r="H39" s="48">
         <f>F39*D39</f>
         <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="57"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="60"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47">
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="37">
         <f>SUM(G38:G40)</f>
         <v>1330000</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="37">
         <f>SUM(H38:H40)</f>
         <v>23000</v>
       </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="37">
         <v>0</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="37">
         <f>H41*13%</f>
         <v>2990</v>
       </c>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="37">
         <f>G42+G41</f>
         <v>1330000</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="37">
         <f>H42+H41</f>
         <v>25990</v>
       </c>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35">
         <f>H43+G43</f>
         <v>1355990</v>
       </c>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
+      <c r="A46" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="14"/>
@@ -1690,10 +1672,10 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="65"/>
       <c r="I48" s="16"/>
       <c r="J48" s="14"/>
       <c r="M48" s="2"/>
@@ -1707,9 +1689,9 @@
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="5:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="17"/>
       <c r="I50" s="16"/>
       <c r="J50" s="14"/>

--- a/Running projects/BAF Head Office/001 Invoice for VFD.xlsx
+++ b/Running projects/BAF Head Office/001 Invoice for VFD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E5593-BCFB-42C4-B4BE-E8258708BE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AE02C-F4A6-4938-95F2-BEC97F37655D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,15 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$H$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$26:$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>S. #</t>
   </si>
@@ -117,13 +117,10 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>SRB 15% on Labour</t>
-  </si>
-  <si>
-    <t>23 Jan 2025</t>
-  </si>
-  <si>
-    <t>Attn: Mr. Amjad</t>
+    <t>24 Mar 2025</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Shujaat Ali</t>
   </si>
 </sst>
 </file>
@@ -275,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -365,12 +362,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -416,9 +422,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -534,6 +537,9 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -566,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,16 +598,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>496888</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19053</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>131763</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>58740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171833</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>122240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>489333</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>146052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -627,7 +636,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9069388" y="5940428"/>
+          <a:off x="131763" y="8218490"/>
           <a:ext cx="643320" cy="595312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -639,16 +648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>639759</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>135515</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>608010</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>528634</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -665,8 +674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9212259" y="373640"/>
-          <a:ext cx="4445000" cy="586798"/>
+          <a:off x="893760" y="183140"/>
+          <a:ext cx="4360865" cy="586798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,16 +751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>365127</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31753</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>687386</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>51158</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655637</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -775,7 +784,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8350252" y="246063"/>
+          <a:off x="31753" y="55563"/>
           <a:ext cx="909634" cy="749658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -796,9 +805,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -836,9 +845,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -871,9 +880,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,9 +932,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1082,22 +1125,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:R53"/>
+  <dimension ref="A4:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1117,54 +1160,54 @@
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31" t="s">
+    <row r="11" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="24"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="31" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="1"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="29"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="1"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="29"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
@@ -1179,7 +1222,7 @@
       <c r="B16" s="66"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="G17" s="67" t="s">
@@ -1187,7 +1230,7 @@
       </c>
       <c r="H17" s="67"/>
     </row>
-    <row r="18" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1197,7 +1240,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1207,7 +1250,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1262,7 @@
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
     </row>
-    <row r="21" spans="1:9" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1229,7 +1272,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1284,7 @@
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69"/>
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
@@ -1251,7 +1294,7 @@
       <c r="G23" s="69"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1261,7 +1304,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1271,37 +1314,37 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -1320,41 +1363,41 @@
         <f>E27*D27</f>
         <v>350000</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="53">
         <f>F27*D27</f>
         <v>8000</v>
       </c>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57">
+    <row r="28" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="56">
         <v>2</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="56">
         <v>1</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="58">
         <v>450000</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="58">
         <v>10000</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="58">
         <f>E28*D28</f>
         <v>450000</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <f>F28*D28</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
         <v>8</v>
       </c>
@@ -1363,378 +1406,350 @@
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
-      <c r="G29" s="56">
+      <c r="G29" s="55">
         <f>SUM(G27:G28)</f>
         <v>800000</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="55">
         <f>SUM(H27:H28)</f>
         <v>18000</v>
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="63" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="21">
+      <c r="F30" s="72"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54">
+        <f>H29+G29</f>
+        <v>818000</v>
+      </c>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:18" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+    </row>
+    <row r="34" spans="1:18" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="21">
-        <f>H29*15%</f>
-        <v>2700</v>
-      </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="21">
-        <f>G30+G29</f>
-        <v>800000</v>
-      </c>
-      <c r="H31" s="21">
-        <f>H30+H29</f>
-        <v>20700</v>
-      </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55">
-        <f>H31+G31</f>
-        <v>820700</v>
-      </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:18" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:18" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-    </row>
-    <row r="36" spans="1:18" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+      <c r="B35" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="40">
+        <v>1</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="40">
+        <v>1</v>
+      </c>
+      <c r="E36" s="42">
+        <v>350000</v>
+      </c>
+      <c r="F36" s="42">
+        <v>8000</v>
+      </c>
+      <c r="G36" s="42">
+        <f>E36*D36</f>
+        <v>350000</v>
+      </c>
+      <c r="H36" s="43">
+        <f>F36*D36</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44">
+        <v>2</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="44">
+        <v>1</v>
+      </c>
+      <c r="E37" s="46">
+        <v>980000</v>
+      </c>
+      <c r="F37" s="46">
+        <v>15000</v>
+      </c>
+      <c r="G37" s="46">
+        <f>E37*D37</f>
+        <v>980000</v>
+      </c>
+      <c r="H37" s="47">
+        <f>F37*D37</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="36">
+        <f>SUM(G36:G38)</f>
+        <v>1330000</v>
+      </c>
+      <c r="H39" s="36">
+        <f>SUM(H36:H38)</f>
+        <v>23000</v>
+      </c>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="36">
         <v>0</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="56.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="41">
-        <v>1</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="41">
-        <v>1</v>
-      </c>
-      <c r="E38" s="43">
-        <v>350000</v>
-      </c>
-      <c r="F38" s="43">
-        <v>8000</v>
-      </c>
-      <c r="G38" s="43">
-        <f>E38*D38</f>
-        <v>350000</v>
-      </c>
-      <c r="H38" s="44">
-        <f>F38*D38</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45">
-        <v>2</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="45">
-        <v>1</v>
-      </c>
-      <c r="E39" s="47">
-        <v>980000</v>
-      </c>
-      <c r="F39" s="47">
-        <v>15000</v>
-      </c>
-      <c r="G39" s="47">
-        <f>E39*D39</f>
-        <v>980000</v>
-      </c>
-      <c r="H39" s="48">
-        <f>F39*D39</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="22.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
+      <c r="H40" s="36">
+        <f>H39*13%</f>
+        <v>2990</v>
+      </c>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="63"/>
-      <c r="G41" s="37">
-        <f>SUM(G38:G40)</f>
+      <c r="G41" s="36">
+        <f>G40+G39</f>
         <v>1330000</v>
       </c>
-      <c r="H41" s="37">
-        <f>SUM(H38:H40)</f>
-        <v>23000</v>
+      <c r="H41" s="36">
+        <f>H40+H39</f>
+        <v>25990</v>
       </c>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="63"/>
-      <c r="G42" s="37">
-        <v>0</v>
-      </c>
-      <c r="H42" s="37">
-        <f>H41*13%</f>
-        <v>2990</v>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34">
+        <f>H41+G41</f>
+        <v>1355990</v>
       </c>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="37">
-        <f>G42+G41</f>
-        <v>1330000</v>
-      </c>
-      <c r="H43" s="37">
-        <f>H42+H41</f>
-        <v>25990</v>
-      </c>
+    <row r="43" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35">
-        <f>H43+G43</f>
-        <v>1355990</v>
-      </c>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="65" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.3">
+      <c r="A47" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="14"/>
+      <c r="B47" s="65"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="14"/>
+      <c r="M47" s="2"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F48" s="8"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="9"/>
       <c r="M48" s="2"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-    </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="F49" s="8"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="9"/>
+    </row>
+    <row r="49" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="14"/>
       <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="5:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="14"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.3">
       <c r="M50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="14"/>
     </row>
     <row r="51" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="M51" s="2"/>
       <c r="O51" s="14"/>
     </row>
     <row r="52" spans="5:15" x14ac:dyDescent="0.3">
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="O53" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A48:B48"/>
+  <mergeCells count="17">
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A22:H23"/>
     <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="7" man="1"/>
+    <brk id="50" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Running projects/BAF Head Office/001 Invoice for VFD.xlsx
+++ b/Running projects/BAF Head Office/001 Invoice for VFD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AE02C-F4A6-4938-95F2-BEC97F37655D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4FDEB3-4805-43AE-9E6A-F981AA17650E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>S. #</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Attn: Mr. Shujaat Ali</t>
+  </si>
+  <si>
+    <t>Tax 5.5% on mat 11% on lab</t>
+  </si>
+  <si>
+    <t>SST 20% on labour</t>
+  </si>
+  <si>
+    <t>5% deduct on NON GST</t>
   </si>
 </sst>
 </file>
@@ -376,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -540,6 +549,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -547,35 +583,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1128,7 +1156,7 @@
   <dimension ref="A4:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1168,7 @@
     <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1175,8 +1203,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="26"/>
       <c r="D12" s="23"/>
       <c r="F12" s="31"/>
@@ -1206,29 +1234,29 @@
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
@@ -1251,16 +1279,16 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1273,26 +1301,26 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -1398,14 +1426,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="55">
         <f>SUM(G27:G28)</f>
         <v>800000</v>
@@ -1414,17 +1442,20 @@
         <f>SUM(H27:H28)</f>
         <v>18000</v>
       </c>
-      <c r="I29" s="14"/>
+      <c r="I29" s="14">
+        <f>H29*20%</f>
+        <v>3600</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="72"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="54"/>
       <c r="H30" s="54">
         <f>H29+G29</f>
@@ -1444,29 +1475,29 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:18" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:18" ht="9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -1571,14 +1602,14 @@
       <c r="H38" s="43"/>
     </row>
     <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
       <c r="G39" s="36">
         <f>SUM(G36:G38)</f>
         <v>1330000</v>
@@ -1590,14 +1621,14 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="36">
         <v>0</v>
       </c>
@@ -1608,14 +1639,14 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
       <c r="G41" s="36">
         <f>G40+G39</f>
         <v>1330000</v>
@@ -1627,14 +1658,14 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34">
         <f>H41+G41</f>
@@ -1656,43 +1687,70 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="C44" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74">
+        <f>G29*5.5%</f>
+        <v>44000</v>
+      </c>
+      <c r="H44" s="74">
+        <f>H29*11%</f>
+        <v>1980</v>
+      </c>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75">
+        <f>2348*20%</f>
+        <v>469.6</v>
+      </c>
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="C46" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77">
+        <f>G29*5/118</f>
+        <v>33898.305084745763</v>
+      </c>
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="65"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="79">
+        <f>H30-G44-H44-H45-H46</f>
+        <v>737652.09491525427</v>
+      </c>
       <c r="I47" s="16"/>
       <c r="J47" s="14"/>
       <c r="M47" s="2"/>
@@ -1706,9 +1764,9 @@
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="5:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="17"/>
       <c r="I49" s="16"/>
       <c r="J49" s="14"/>
@@ -1726,7 +1784,12 @@
       <c r="O52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A16:B16"/>
@@ -1740,10 +1803,7 @@
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
